--- a/Code/Results/Cases/Case_3_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9727771072390112</v>
+        <v>1.184546363813467</v>
       </c>
       <c r="C2">
-        <v>0.1447633993615938</v>
+        <v>0.05898662757871875</v>
       </c>
       <c r="D2">
-        <v>0.002277954437780005</v>
+        <v>0.008625172303449613</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.347247539921355</v>
+        <v>4.480739842585137</v>
       </c>
       <c r="G2">
-        <v>0.0008698972990725608</v>
+        <v>0.002642504582053729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.183957181784862</v>
+        <v>2.901576537038522</v>
       </c>
       <c r="J2">
-        <v>0.09816962687539288</v>
+        <v>0.1947821690312814</v>
       </c>
       <c r="K2">
-        <v>1.038998195976262</v>
+        <v>1.018797719061894</v>
       </c>
       <c r="L2">
-        <v>0.2205038801295416</v>
+        <v>0.3840735125701542</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8580451425685567</v>
+        <v>1.166632628660665</v>
       </c>
       <c r="C3">
-        <v>0.1250006207920791</v>
+        <v>0.05376422504723166</v>
       </c>
       <c r="D3">
-        <v>0.002200537510942846</v>
+        <v>0.008862043121221186</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.164043446167824</v>
+        <v>4.43978460057734</v>
       </c>
       <c r="G3">
-        <v>0.0008770236630763961</v>
+        <v>0.002646895375753631</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.079805045576634</v>
+        <v>2.876685712847703</v>
       </c>
       <c r="J3">
-        <v>0.09567126385816849</v>
+        <v>0.1946319986480241</v>
       </c>
       <c r="K3">
-        <v>0.9109414071319009</v>
+        <v>0.995064199117337</v>
       </c>
       <c r="L3">
-        <v>0.2017515941592052</v>
+        <v>0.3820585161539753</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7890097661909863</v>
+        <v>1.156455430480605</v>
       </c>
       <c r="C4">
-        <v>0.1130604768354715</v>
+        <v>0.05059025623481261</v>
       </c>
       <c r="D4">
-        <v>0.002146070959465618</v>
+        <v>0.009018774222908643</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.055028242910794</v>
+        <v>4.415878706361369</v>
       </c>
       <c r="G4">
-        <v>0.0008815298276449276</v>
+        <v>0.002649734368667098</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.017899998848151</v>
+        <v>2.862081270517209</v>
       </c>
       <c r="J4">
-        <v>0.09421948768913779</v>
+        <v>0.1945834638562687</v>
       </c>
       <c r="K4">
-        <v>0.8337988298562209</v>
+        <v>0.9812202663420351</v>
       </c>
       <c r="L4">
-        <v>0.1905591508082622</v>
+        <v>0.3810170452359571</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7611998481748401</v>
+        <v>1.152515051120702</v>
       </c>
       <c r="C5">
-        <v>0.1082372038062545</v>
+        <v>0.04930495615913344</v>
       </c>
       <c r="D5">
-        <v>0.002122208063192632</v>
+        <v>0.009085494432505392</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.011412564235087</v>
+        <v>4.40644854856356</v>
       </c>
       <c r="G5">
-        <v>0.0008833999649631142</v>
+        <v>0.002650927363018538</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.993149767748108</v>
+        <v>2.856300220834896</v>
       </c>
       <c r="J5">
-        <v>0.09364753568781481</v>
+        <v>0.1945746787132059</v>
       </c>
       <c r="K5">
-        <v>0.8026988702769984</v>
+        <v>0.9757620077615172</v>
       </c>
       <c r="L5">
-        <v>0.1860732838267296</v>
+        <v>0.3806419254748903</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7566006174889139</v>
+        <v>1.151873258209321</v>
       </c>
       <c r="C6">
-        <v>0.1074386868178436</v>
+        <v>0.04909202100454024</v>
       </c>
       <c r="D6">
-        <v>0.002118147130402592</v>
+        <v>0.009096745810988294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.004217268687881</v>
+        <v>4.404901494090538</v>
       </c>
       <c r="G6">
-        <v>0.0008837125719451313</v>
+        <v>0.002651127641500445</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.989067742571706</v>
+        <v>2.855350564695684</v>
       </c>
       <c r="J6">
-        <v>0.09355372230924885</v>
+        <v>0.1945738842616116</v>
       </c>
       <c r="K6">
-        <v>0.7975540200361593</v>
+        <v>0.9748667382322367</v>
       </c>
       <c r="L6">
-        <v>0.185332788091543</v>
+        <v>0.3805826159880965</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.788633446714158</v>
+        <v>1.156401451053938</v>
       </c>
       <c r="C7">
-        <v>0.1129952648327048</v>
+        <v>0.0505728894659967</v>
       </c>
       <c r="D7">
-        <v>0.002145755788122372</v>
+        <v>0.009019662475668433</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.05443683336766</v>
+        <v>4.415750266382673</v>
       </c>
       <c r="G7">
-        <v>0.000881554910672433</v>
+        <v>0.002649750311621625</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.017564326817379</v>
+        <v>2.862002615767636</v>
       </c>
       <c r="J7">
-        <v>0.09421169584488709</v>
+        <v>0.1945833008497928</v>
       </c>
       <c r="K7">
-        <v>0.8333780905365131</v>
+        <v>0.9811459122787483</v>
       </c>
       <c r="L7">
-        <v>0.190498355839992</v>
+        <v>0.3810117865849705</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.932904688909872</v>
+        <v>1.178199250556787</v>
       </c>
       <c r="C8">
-        <v>0.1379048526318343</v>
+        <v>0.05717912467443398</v>
       </c>
       <c r="D8">
-        <v>0.002252746023984509</v>
+        <v>0.008704508801150368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.283317813310717</v>
+        <v>4.466360737905589</v>
       </c>
       <c r="G8">
-        <v>0.0008723280029294318</v>
+        <v>0.002643988912743295</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.14759767739595</v>
+        <v>2.892853160970489</v>
       </c>
       <c r="J8">
-        <v>0.09729048956370789</v>
+        <v>0.1947213332992952</v>
       </c>
       <c r="K8">
-        <v>0.9945128470220652</v>
+        <v>1.010463213452795</v>
       </c>
       <c r="L8">
-        <v>0.2139677913579874</v>
+        <v>0.3833381527092996</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.228597574902182</v>
+        <v>1.227460380194771</v>
       </c>
       <c r="C9">
-        <v>0.1886112926502648</v>
+        <v>0.07039704093600108</v>
       </c>
       <c r="D9">
-        <v>0.002404058980725265</v>
+        <v>0.008175573655033519</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.762868438377211</v>
+        <v>4.57547537887325</v>
       </c>
       <c r="G9">
-        <v>0.0008552206184041768</v>
+        <v>0.002633820371982996</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.420661495639038</v>
+        <v>2.958752253539558</v>
       </c>
       <c r="J9">
-        <v>0.1040303873917026</v>
+        <v>0.19533812827612</v>
       </c>
       <c r="K9">
-        <v>1.324110033288775</v>
+        <v>1.073737646487928</v>
       </c>
       <c r="L9">
-        <v>0.262823690304316</v>
+        <v>0.3894511689837685</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456064893084374</v>
+        <v>1.267623797288479</v>
       </c>
       <c r="C10">
-        <v>0.2274863968164453</v>
+        <v>0.08027573552971035</v>
       </c>
       <c r="D10">
-        <v>0.002474599457007898</v>
+        <v>0.007840582769856885</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.138742569444076</v>
+        <v>4.661700528148572</v>
       </c>
       <c r="G10">
-        <v>0.000843178579336136</v>
+        <v>0.002627030699413893</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.635109465577372</v>
+        <v>3.010490915921068</v>
       </c>
       <c r="J10">
-        <v>0.1094864885143565</v>
+        <v>0.1960019560033146</v>
       </c>
       <c r="K10">
-        <v>1.577373461027491</v>
+        <v>1.123762224610459</v>
       </c>
       <c r="L10">
-        <v>0.3008751497471991</v>
+        <v>0.3948862516103731</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.562371770518297</v>
+        <v>1.286757899876562</v>
       </c>
       <c r="C11">
-        <v>0.2456461232377194</v>
+        <v>0.08480777784922111</v>
       </c>
       <c r="D11">
-        <v>0.002496731983251177</v>
+        <v>0.00769968555272893</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.316048070821836</v>
+        <v>4.702252221140157</v>
       </c>
       <c r="G11">
-        <v>0.000837796385615699</v>
+        <v>0.002624088220302689</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.736367771911361</v>
+        <v>3.034756506402132</v>
       </c>
       <c r="J11">
-        <v>0.1120969517366177</v>
+        <v>0.1963496387980896</v>
       </c>
       <c r="K11">
-        <v>1.695703208705936</v>
+        <v>1.147290713579793</v>
       </c>
       <c r="L11">
-        <v>0.3187611204701568</v>
+        <v>0.3975635026628765</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.603090817969786</v>
+        <v>1.29412757892058</v>
       </c>
       <c r="C12">
-        <v>0.252602540624622</v>
+        <v>0.08652954230720411</v>
       </c>
       <c r="D12">
-        <v>0.002503581897855378</v>
+        <v>0.007647972538795678</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.384208638919404</v>
+        <v>4.717799554671842</v>
       </c>
       <c r="G12">
-        <v>0.0008357703825674659</v>
+        <v>0.002622994879825753</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.775309074482053</v>
+        <v>3.044050559153504</v>
       </c>
       <c r="J12">
-        <v>0.1131056792368597</v>
+        <v>0.1964878616292793</v>
       </c>
       <c r="K12">
-        <v>1.741025372648636</v>
+        <v>1.156311470971588</v>
       </c>
       <c r="L12">
-        <v>0.3256268378645615</v>
+        <v>0.398606717802906</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.59429969982574</v>
+        <v>1.292534873923131</v>
       </c>
       <c r="C13">
-        <v>0.2511006110822791</v>
+        <v>0.0861584799980335</v>
       </c>
       <c r="D13">
-        <v>0.002502176381736776</v>
+        <v>0.00765903701721049</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.369481850412285</v>
+        <v>4.714442644172834</v>
       </c>
       <c r="G13">
-        <v>0.0008362062078367877</v>
+        <v>0.002623229421889283</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.766894723349793</v>
+        <v>3.042044234804806</v>
       </c>
       <c r="J13">
-        <v>0.1128875038149104</v>
+        <v>0.1964578011292417</v>
       </c>
       <c r="K13">
-        <v>1.731240500699897</v>
+        <v>1.154363751185116</v>
       </c>
       <c r="L13">
-        <v>0.3241438928224056</v>
+        <v>0.3983807360789626</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565712131897641</v>
+        <v>1.287361723409305</v>
       </c>
       <c r="C14">
-        <v>0.2462167643913062</v>
+        <v>0.08494931613398649</v>
       </c>
       <c r="D14">
-        <v>0.00249732680412551</v>
+        <v>0.007695398252195451</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.321634590861464</v>
+        <v>4.703527473613462</v>
       </c>
       <c r="G14">
-        <v>0.0008376294723092464</v>
+        <v>0.002623997852053027</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.739559140392331</v>
+        <v>3.035519023554627</v>
       </c>
       <c r="J14">
-        <v>0.1121795249486652</v>
+        <v>0.1963608789956979</v>
       </c>
       <c r="K14">
-        <v>1.69942120829333</v>
+        <v>1.148030631449473</v>
       </c>
       <c r="L14">
-        <v>0.3193240495704828</v>
+        <v>0.3976487397098794</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.548263468448738</v>
+        <v>1.284209164180169</v>
       </c>
       <c r="C15">
-        <v>0.2432360089565293</v>
+        <v>0.08420939748063461</v>
       </c>
       <c r="D15">
-        <v>0.002494153857955261</v>
+        <v>0.007717884037857781</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.2924629096442</v>
+        <v>4.696866539807871</v>
       </c>
       <c r="G15">
-        <v>0.0008385027888735187</v>
+        <v>0.00262447125807856</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.722895069912653</v>
+        <v>3.031535852710789</v>
       </c>
       <c r="J15">
-        <v>0.1117485526339408</v>
+        <v>0.196302365800527</v>
       </c>
       <c r="K15">
-        <v>1.679999854057968</v>
+        <v>1.144165872426129</v>
       </c>
       <c r="L15">
-        <v>0.3163841364898587</v>
+        <v>0.3972041977913392</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449179096295524</v>
+        <v>1.266390701079303</v>
       </c>
       <c r="C16">
-        <v>0.2263101240582301</v>
+        <v>0.07998033165776519</v>
       </c>
       <c r="D16">
-        <v>0.002472944298735902</v>
+        <v>0.007850021052733247</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.127291550402163</v>
+        <v>4.659077125478433</v>
       </c>
       <c r="G16">
-        <v>0.0008435321078911295</v>
+        <v>0.002627225929538696</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.62857189072021</v>
+        <v>3.008919806760048</v>
       </c>
       <c r="J16">
-        <v>0.10931861744141</v>
+        <v>0.1959801530007823</v>
       </c>
       <c r="K16">
-        <v>1.569708475843953</v>
+        <v>1.122240118810339</v>
       </c>
       <c r="L16">
-        <v>0.2997186715407452</v>
+        <v>0.394715403638088</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.389157040986674</v>
+        <v>1.2556807068068</v>
       </c>
       <c r="C17">
-        <v>0.2160560789771182</v>
+        <v>0.07739577716918689</v>
       </c>
       <c r="D17">
-        <v>0.002457313510799031</v>
+        <v>0.007934018431612122</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.027657543492921</v>
+        <v>4.636234818258458</v>
       </c>
       <c r="G17">
-        <v>0.0008466408368987039</v>
+        <v>0.002628953193429043</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.5717002581667</v>
+        <v>2.995232636372691</v>
       </c>
       <c r="J17">
-        <v>0.1078620091066256</v>
+        <v>0.1957941851552221</v>
       </c>
       <c r="K17">
-        <v>1.502891089618743</v>
+        <v>1.108987124802411</v>
       </c>
       <c r="L17">
-        <v>0.2896492070847074</v>
+        <v>0.3932410266666579</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354896723470489</v>
+        <v>1.249601893596832</v>
       </c>
       <c r="C18">
-        <v>0.2102022047707948</v>
+        <v>0.07591279758740654</v>
       </c>
       <c r="D18">
-        <v>0.002447392147784777</v>
+        <v>0.007983413804985018</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.970938192253328</v>
+        <v>4.623221447857702</v>
       </c>
       <c r="G18">
-        <v>0.0008484380201183368</v>
+        <v>0.002629960435511181</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.539333705992789</v>
+        <v>2.98742877510071</v>
       </c>
       <c r="J18">
-        <v>0.1070361840997691</v>
+        <v>0.1956915238142471</v>
       </c>
       <c r="K18">
-        <v>1.464748806139227</v>
+        <v>1.101437021867156</v>
       </c>
       <c r="L18">
-        <v>0.2839111039781983</v>
+        <v>0.3924122842582847</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.34334029285202</v>
+        <v>1.247557679212662</v>
       </c>
       <c r="C19">
-        <v>0.2082274104940751</v>
+        <v>0.07541129969591509</v>
       </c>
       <c r="D19">
-        <v>0.002443876006300805</v>
+        <v>0.00800032444691845</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.951831718772382</v>
+        <v>4.618836787249762</v>
       </c>
       <c r="G19">
-        <v>0.0008490481304599084</v>
+        <v>0.002630303837910625</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.528432264632613</v>
+        <v>2.984798300786636</v>
       </c>
       <c r="J19">
-        <v>0.1067585811543381</v>
+        <v>0.1956575036836483</v>
       </c>
       <c r="K19">
-        <v>1.45188230998275</v>
+        <v>1.098893167539529</v>
       </c>
       <c r="L19">
-        <v>0.2819772008477344</v>
+        <v>0.3921349993364061</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.39551890816972</v>
+        <v>1.256812391813213</v>
       </c>
       <c r="C20">
-        <v>0.2171430091670317</v>
+        <v>0.07767053544037594</v>
       </c>
       <c r="D20">
-        <v>0.002459074489532975</v>
+        <v>0.007924964831978576</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.038202187290807</v>
+        <v>4.638653489194127</v>
       </c>
       <c r="G20">
-        <v>0.0008463089746449157</v>
+        <v>0.002628767899473416</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.577718240835338</v>
+        <v>2.996682553123136</v>
       </c>
       <c r="J20">
-        <v>0.1080158159301874</v>
+        <v>0.1958135365311549</v>
       </c>
       <c r="K20">
-        <v>1.509973524528334</v>
+        <v>1.110390407682132</v>
       </c>
       <c r="L20">
-        <v>0.290715504703698</v>
+        <v>0.3933959815674797</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.574095954780233</v>
+        <v>1.288877838836129</v>
       </c>
       <c r="C21">
-        <v>0.2476490078660731</v>
+        <v>0.0853043247622054</v>
       </c>
       <c r="D21">
-        <v>0.002498793615300032</v>
+        <v>0.007684673605533154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.335659904880998</v>
+        <v>4.706728329066152</v>
       </c>
       <c r="G21">
-        <v>0.0008372111101215538</v>
+        <v>0.002623771578809997</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.747571517006392</v>
+        <v>3.037432778673505</v>
       </c>
       <c r="J21">
-        <v>0.1123869125760493</v>
+        <v>0.1963891693338411</v>
       </c>
       <c r="K21">
-        <v>1.7087528255243</v>
+        <v>1.149887808821831</v>
       </c>
       <c r="L21">
-        <v>0.3207371553556584</v>
+        <v>0.3978629473368329</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.693535088282886</v>
+        <v>1.310557212766611</v>
       </c>
       <c r="C22">
-        <v>0.2680573568282227</v>
+        <v>0.09032600445041794</v>
       </c>
       <c r="D22">
-        <v>0.002515777710065281</v>
+        <v>0.007537193587794144</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.536063868396013</v>
+        <v>4.752334333000363</v>
       </c>
       <c r="G22">
-        <v>0.0008313348661500124</v>
+        <v>0.002620628037229848</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.862094853799519</v>
+        <v>3.064678740514807</v>
       </c>
       <c r="J22">
-        <v>0.1153623611475254</v>
+        <v>0.1968036280729351</v>
       </c>
       <c r="K22">
-        <v>1.841693466939887</v>
+        <v>1.176348817174329</v>
       </c>
       <c r="L22">
-        <v>0.3409036244095063</v>
+        <v>0.4009537000901986</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.629518452719111</v>
+        <v>1.298920444950681</v>
       </c>
       <c r="C23">
-        <v>0.2571178476046612</v>
+        <v>0.08764283089016089</v>
       </c>
       <c r="D23">
-        <v>0.002507568292612561</v>
+        <v>0.007615034860197101</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.428516189375671</v>
+        <v>4.727891378521264</v>
       </c>
       <c r="G23">
-        <v>0.0008344653388543399</v>
+        <v>0.002622294691369617</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.800627029027481</v>
+        <v>3.050080834382328</v>
       </c>
       <c r="J23">
-        <v>0.113762830224303</v>
+        <v>0.1965789268483533</v>
       </c>
       <c r="K23">
-        <v>1.770440330873669</v>
+        <v>1.162166857627653</v>
       </c>
       <c r="L23">
-        <v>0.3300869559680422</v>
+        <v>0.3992884471638973</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.392641942312139</v>
+        <v>1.256300512476002</v>
       </c>
       <c r="C24">
-        <v>0.2166514801927519</v>
+        <v>0.07754630815277608</v>
       </c>
       <c r="D24">
-        <v>0.002458281256014994</v>
+        <v>0.007929054524646428</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.033433212867124</v>
+        <v>4.637559637487129</v>
       </c>
       <c r="G24">
-        <v>0.0008464589785395723</v>
+        <v>0.002628851626721793</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.574996488680625</v>
+        <v>2.996026843074105</v>
       </c>
       <c r="J24">
-        <v>0.1079462438669552</v>
+        <v>0.1958047745225571</v>
       </c>
       <c r="K24">
-        <v>1.506770713537804</v>
+        <v>1.10975576788374</v>
       </c>
       <c r="L24">
-        <v>0.2902332735326496</v>
+        <v>0.393325867593461</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.146999412666531</v>
+        <v>1.213436511276228</v>
       </c>
       <c r="C25">
-        <v>0.174647338747647</v>
+        <v>0.0667923467791951</v>
       </c>
       <c r="D25">
-        <v>0.002369888558336974</v>
+        <v>0.008309199585091243</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.629377168329086</v>
+        <v>4.544896146713768</v>
       </c>
       <c r="G25">
-        <v>0.000859750339123432</v>
+        <v>0.002636451078849207</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.344580890808672</v>
+        <v>2.94034348232168</v>
       </c>
       <c r="J25">
-        <v>0.1021244182305203</v>
+        <v>0.1951342499620772</v>
       </c>
       <c r="K25">
-        <v>1.233213735829253</v>
+        <v>1.055999967789177</v>
       </c>
       <c r="L25">
-        <v>0.2492615818279234</v>
+        <v>0.3876315695066097</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.184546363813467</v>
+        <v>0.9727771072390112</v>
       </c>
       <c r="C2">
-        <v>0.05898662757871875</v>
+        <v>0.1447633993615938</v>
       </c>
       <c r="D2">
-        <v>0.008625172303449613</v>
+        <v>0.002277954437762242</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.480739842585137</v>
+        <v>3.347247539921341</v>
       </c>
       <c r="G2">
-        <v>0.002642504582053729</v>
+        <v>0.0008698972990691304</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.901576537038522</v>
+        <v>2.183957181784834</v>
       </c>
       <c r="J2">
-        <v>0.1947821690312814</v>
+        <v>0.09816962687542485</v>
       </c>
       <c r="K2">
-        <v>1.018797719061894</v>
+        <v>1.038998195976319</v>
       </c>
       <c r="L2">
-        <v>0.3840735125701542</v>
+        <v>0.220503880129499</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.166632628660665</v>
+        <v>0.8580451425686704</v>
       </c>
       <c r="C3">
-        <v>0.05376422504723166</v>
+        <v>0.1250006207916243</v>
       </c>
       <c r="D3">
-        <v>0.008862043121221186</v>
+        <v>0.002200537510929523</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.43978460057734</v>
+        <v>3.164043446167838</v>
       </c>
       <c r="G3">
-        <v>0.002646895375753631</v>
+        <v>0.0008770236631300877</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.876685712847703</v>
+        <v>2.079805045576649</v>
       </c>
       <c r="J3">
-        <v>0.1946319986480241</v>
+        <v>0.09567126385814362</v>
       </c>
       <c r="K3">
-        <v>0.995064199117337</v>
+        <v>0.910941407131844</v>
       </c>
       <c r="L3">
-        <v>0.3820585161539753</v>
+        <v>0.2017515941592336</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.156455430480605</v>
+        <v>0.7890097661910715</v>
       </c>
       <c r="C4">
-        <v>0.05059025623481261</v>
+        <v>0.1130604768354289</v>
       </c>
       <c r="D4">
-        <v>0.009018774222908643</v>
+        <v>0.002146070959421653</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.415878706361369</v>
+        <v>3.055028242910794</v>
       </c>
       <c r="G4">
-        <v>0.002649734368667098</v>
+        <v>0.0008815298276437465</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.862081270517209</v>
+        <v>2.017899998848137</v>
       </c>
       <c r="J4">
-        <v>0.1945834638562687</v>
+        <v>0.09421948768921951</v>
       </c>
       <c r="K4">
-        <v>0.9812202663420351</v>
+        <v>0.8337988298561356</v>
       </c>
       <c r="L4">
-        <v>0.3810170452359571</v>
+        <v>0.1905591508082267</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.152515051120702</v>
+        <v>0.7611998481748969</v>
       </c>
       <c r="C5">
-        <v>0.04930495615913344</v>
+        <v>0.108237203806496</v>
       </c>
       <c r="D5">
-        <v>0.009085494432505392</v>
+        <v>0.00212220806340091</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.40644854856356</v>
+        <v>3.011412564235059</v>
       </c>
       <c r="G5">
-        <v>0.002650927363018538</v>
+        <v>0.0008833999648379592</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.856300220834896</v>
+        <v>1.993149767748093</v>
       </c>
       <c r="J5">
-        <v>0.1945746787132059</v>
+        <v>0.09364753568778639</v>
       </c>
       <c r="K5">
-        <v>0.9757620077615172</v>
+        <v>0.8026988702770268</v>
       </c>
       <c r="L5">
-        <v>0.3806419254748903</v>
+        <v>0.1860732838267509</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.151873258209321</v>
+        <v>0.7566006174888287</v>
       </c>
       <c r="C6">
-        <v>0.04909202100454024</v>
+        <v>0.1074386868176305</v>
       </c>
       <c r="D6">
-        <v>0.009096745810988294</v>
+        <v>0.002118147130368842</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.404901494090538</v>
+        <v>3.004217268687881</v>
       </c>
       <c r="G6">
-        <v>0.002651127641500445</v>
+        <v>0.0008837125720524292</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.855350564695684</v>
+        <v>1.989067742571706</v>
       </c>
       <c r="J6">
-        <v>0.1945738842616116</v>
+        <v>0.09355372230929859</v>
       </c>
       <c r="K6">
-        <v>0.9748667382322367</v>
+        <v>0.7975540200360456</v>
       </c>
       <c r="L6">
-        <v>0.3805826159880965</v>
+        <v>0.1853327880914577</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.156401451053938</v>
+        <v>0.7886334467140159</v>
       </c>
       <c r="C7">
-        <v>0.0505728894659967</v>
+        <v>0.1129952648330601</v>
       </c>
       <c r="D7">
-        <v>0.009019662475668433</v>
+        <v>0.002145755788082182</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.415750266382673</v>
+        <v>3.054436833367717</v>
       </c>
       <c r="G7">
-        <v>0.002649750311621625</v>
+        <v>0.0008815549107803615</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.862002615767636</v>
+        <v>2.017564326817393</v>
       </c>
       <c r="J7">
-        <v>0.1945833008497928</v>
+        <v>0.09421169584499012</v>
       </c>
       <c r="K7">
-        <v>0.9811459122787483</v>
+        <v>0.8333780905364847</v>
       </c>
       <c r="L7">
-        <v>0.3810117865849705</v>
+        <v>0.1904983558399067</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.178199250556787</v>
+        <v>0.9329046889098151</v>
       </c>
       <c r="C8">
-        <v>0.05717912467443398</v>
+        <v>0.1379048526316069</v>
       </c>
       <c r="D8">
-        <v>0.008704508801150368</v>
+        <v>0.002252746024068886</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.466360737905589</v>
+        <v>3.283317813310688</v>
       </c>
       <c r="G8">
-        <v>0.002643988912743295</v>
+        <v>0.0008723280029226968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.892853160970489</v>
+        <v>2.14759767739595</v>
       </c>
       <c r="J8">
-        <v>0.1947213332992952</v>
+        <v>0.09729048956373632</v>
       </c>
       <c r="K8">
-        <v>1.010463213452795</v>
+        <v>0.9945128470220652</v>
       </c>
       <c r="L8">
-        <v>0.3833381527092996</v>
+        <v>0.2139677913578737</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.227460380194771</v>
+        <v>1.228597574902039</v>
       </c>
       <c r="C9">
-        <v>0.07039704093600108</v>
+        <v>0.188611292650279</v>
       </c>
       <c r="D9">
-        <v>0.008175573655033519</v>
+        <v>0.002404058980844281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.57547537887325</v>
+        <v>3.762868438377183</v>
       </c>
       <c r="G9">
-        <v>0.002633820371982996</v>
+        <v>0.0008552206184043667</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.958752253539558</v>
+        <v>2.420661495639067</v>
       </c>
       <c r="J9">
-        <v>0.19533812827612</v>
+        <v>0.1040303873916528</v>
       </c>
       <c r="K9">
-        <v>1.073737646487928</v>
+        <v>1.324110033288719</v>
       </c>
       <c r="L9">
-        <v>0.3894511689837685</v>
+        <v>0.262823690304316</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.267623797288479</v>
+        <v>1.456064893084289</v>
       </c>
       <c r="C10">
-        <v>0.08027573552971035</v>
+        <v>0.2274863968161753</v>
       </c>
       <c r="D10">
-        <v>0.007840582769856885</v>
+        <v>0.002474599457009674</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.661700528148572</v>
+        <v>4.138742569444105</v>
       </c>
       <c r="G10">
-        <v>0.002627030699413893</v>
+        <v>0.0008431785793356919</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.010490915921068</v>
+        <v>2.635109465577386</v>
       </c>
       <c r="J10">
-        <v>0.1960019560033146</v>
+        <v>0.1094864885143778</v>
       </c>
       <c r="K10">
-        <v>1.123762224610459</v>
+        <v>1.577373461027548</v>
       </c>
       <c r="L10">
-        <v>0.3948862516103731</v>
+        <v>0.3008751497472844</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286757899876562</v>
+        <v>1.562371770518382</v>
       </c>
       <c r="C11">
-        <v>0.08480777784922111</v>
+        <v>0.2456461232382594</v>
       </c>
       <c r="D11">
-        <v>0.00769968555272893</v>
+        <v>0.002496731983382405</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.702252221140157</v>
+        <v>4.316048070821864</v>
       </c>
       <c r="G11">
-        <v>0.002624088220302689</v>
+        <v>0.000837796385468864</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.034756506402132</v>
+        <v>2.736367771911361</v>
       </c>
       <c r="J11">
-        <v>0.1963496387980896</v>
+        <v>0.112096951736703</v>
       </c>
       <c r="K11">
-        <v>1.147290713579793</v>
+        <v>1.695703208706107</v>
       </c>
       <c r="L11">
-        <v>0.3975635026628765</v>
+        <v>0.3187611204701994</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.29412757892058</v>
+        <v>1.603090817969644</v>
       </c>
       <c r="C12">
-        <v>0.08652954230720411</v>
+        <v>0.2526025406243093</v>
       </c>
       <c r="D12">
-        <v>0.007647972538795678</v>
+        <v>0.002503581897846274</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.717799554671842</v>
+        <v>4.384208638919461</v>
       </c>
       <c r="G12">
-        <v>0.002622994879825753</v>
+        <v>0.0008357703826246868</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.044050559153504</v>
+        <v>2.775309074482053</v>
       </c>
       <c r="J12">
-        <v>0.1964878616292793</v>
+        <v>0.1131056792368312</v>
       </c>
       <c r="K12">
-        <v>1.156311470971588</v>
+        <v>1.741025372648636</v>
       </c>
       <c r="L12">
-        <v>0.398606717802906</v>
+        <v>0.3256268378646325</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.292534873923131</v>
+        <v>1.594299699825484</v>
       </c>
       <c r="C13">
-        <v>0.0861584799980335</v>
+        <v>0.2511006110822507</v>
       </c>
       <c r="D13">
-        <v>0.00765903701721049</v>
+        <v>0.002502176381718346</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.714442644172834</v>
+        <v>4.369481850412257</v>
       </c>
       <c r="G13">
-        <v>0.002623229421889283</v>
+        <v>0.0008362062078330495</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.042044234804806</v>
+        <v>2.766894723349822</v>
       </c>
       <c r="J13">
-        <v>0.1964578011292417</v>
+        <v>0.1128875038146191</v>
       </c>
       <c r="K13">
-        <v>1.154363751185116</v>
+        <v>1.73124050069967</v>
       </c>
       <c r="L13">
-        <v>0.3983807360789626</v>
+        <v>0.3241438928224909</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.287361723409305</v>
+        <v>1.565712131897783</v>
       </c>
       <c r="C14">
-        <v>0.08494931613398649</v>
+        <v>0.2462167643913062</v>
       </c>
       <c r="D14">
-        <v>0.007695398252195451</v>
+        <v>0.002497326803872157</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.703527473613462</v>
+        <v>4.321634590861493</v>
       </c>
       <c r="G14">
-        <v>0.002623997852053027</v>
+        <v>0.000837629472292342</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.035519023554627</v>
+        <v>2.739559140392331</v>
       </c>
       <c r="J14">
-        <v>0.1963608789956979</v>
+        <v>0.1121795249486794</v>
       </c>
       <c r="K14">
-        <v>1.148030631449473</v>
+        <v>1.699421208293245</v>
       </c>
       <c r="L14">
-        <v>0.3976487397098794</v>
+        <v>0.3193240495704401</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.284209164180169</v>
+        <v>1.548263468448852</v>
       </c>
       <c r="C15">
-        <v>0.08420939748063461</v>
+        <v>0.2432360089565293</v>
       </c>
       <c r="D15">
-        <v>0.007717884037857781</v>
+        <v>0.002494153857717674</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.696866539807871</v>
+        <v>4.292462909644229</v>
       </c>
       <c r="G15">
-        <v>0.00262447125807856</v>
+        <v>0.0008385027888140328</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.031535852710789</v>
+        <v>2.722895069912681</v>
       </c>
       <c r="J15">
-        <v>0.196302365800527</v>
+        <v>0.1117485526339124</v>
       </c>
       <c r="K15">
-        <v>1.144165872426129</v>
+        <v>1.679999854057968</v>
       </c>
       <c r="L15">
-        <v>0.3972041977913392</v>
+        <v>0.3163841364898303</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.266390701079303</v>
+        <v>1.449179096295694</v>
       </c>
       <c r="C16">
-        <v>0.07998033165776519</v>
+        <v>0.2263101240584291</v>
       </c>
       <c r="D16">
-        <v>0.007850021052733247</v>
+        <v>0.00247294429858802</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.659077125478433</v>
+        <v>4.127291550402219</v>
       </c>
       <c r="G16">
-        <v>0.002627225929538696</v>
+        <v>0.0008435321079003521</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.008919806760048</v>
+        <v>2.62857189072021</v>
       </c>
       <c r="J16">
-        <v>0.1959801530007823</v>
+        <v>0.1093186174415237</v>
       </c>
       <c r="K16">
-        <v>1.122240118810339</v>
+        <v>1.569708475843953</v>
       </c>
       <c r="L16">
-        <v>0.394715403638088</v>
+        <v>0.299718671540731</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2556807068068</v>
+        <v>1.389157040986504</v>
       </c>
       <c r="C17">
-        <v>0.07739577716918689</v>
+        <v>0.2160560789776156</v>
       </c>
       <c r="D17">
-        <v>0.007934018431612122</v>
+        <v>0.002457313510400017</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.636234818258458</v>
+        <v>4.02765754349295</v>
       </c>
       <c r="G17">
-        <v>0.002628953193429043</v>
+        <v>0.000846640836962953</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.995232636372691</v>
+        <v>2.571700258166743</v>
       </c>
       <c r="J17">
-        <v>0.1957941851552221</v>
+        <v>0.1078620091065048</v>
       </c>
       <c r="K17">
-        <v>1.108987124802411</v>
+        <v>1.502891089618828</v>
       </c>
       <c r="L17">
-        <v>0.3932410266666579</v>
+        <v>0.2896492070846222</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.249601893596832</v>
+        <v>1.354896723470517</v>
       </c>
       <c r="C18">
-        <v>0.07591279758740654</v>
+        <v>0.2102022047712637</v>
       </c>
       <c r="D18">
-        <v>0.007983413804985018</v>
+        <v>0.002447392147620686</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.623221447857702</v>
+        <v>3.970938192253271</v>
       </c>
       <c r="G18">
-        <v>0.002629960435511181</v>
+        <v>0.0008484380201812236</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.98742877510071</v>
+        <v>2.539333705992803</v>
       </c>
       <c r="J18">
-        <v>0.1956915238142471</v>
+        <v>0.1070361840998686</v>
       </c>
       <c r="K18">
-        <v>1.101437021867156</v>
+        <v>1.464748806139255</v>
       </c>
       <c r="L18">
-        <v>0.3924122842582847</v>
+        <v>0.2839111039782694</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.247557679212662</v>
+        <v>1.343340292851792</v>
       </c>
       <c r="C19">
-        <v>0.07541129969591509</v>
+        <v>0.2082274104938051</v>
       </c>
       <c r="D19">
-        <v>0.00800032444691845</v>
+        <v>0.002443876006159806</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.618836787249762</v>
+        <v>3.951831718772496</v>
       </c>
       <c r="G19">
-        <v>0.002630303837910625</v>
+        <v>0.0008490481306535594</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.984798300786636</v>
+        <v>2.528432264632613</v>
       </c>
       <c r="J19">
-        <v>0.1956575036836483</v>
+        <v>0.1067585811542031</v>
       </c>
       <c r="K19">
-        <v>1.098893167539529</v>
+        <v>1.451882309982608</v>
       </c>
       <c r="L19">
-        <v>0.3921349993364061</v>
+        <v>0.2819772008479191</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.256812391813213</v>
+        <v>1.39551890816989</v>
       </c>
       <c r="C20">
-        <v>0.07767053544037594</v>
+        <v>0.217143009167259</v>
       </c>
       <c r="D20">
-        <v>0.007924964831978576</v>
+        <v>0.002459074489364665</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.638653489194127</v>
+        <v>4.038202187290864</v>
       </c>
       <c r="G20">
-        <v>0.002628767899473416</v>
+        <v>0.0008463089745799795</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.996682553123136</v>
+        <v>2.577718240835367</v>
       </c>
       <c r="J20">
-        <v>0.1958135365311549</v>
+        <v>0.1080158159301163</v>
       </c>
       <c r="K20">
-        <v>1.110390407682132</v>
+        <v>1.509973524528192</v>
       </c>
       <c r="L20">
-        <v>0.3933959815674797</v>
+        <v>0.290715504703698</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.288877838836129</v>
+        <v>1.574095954780319</v>
       </c>
       <c r="C21">
-        <v>0.0853043247622054</v>
+        <v>0.2476490078663289</v>
       </c>
       <c r="D21">
-        <v>0.007684673605533154</v>
+        <v>0.002498793615177908</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.706728329066152</v>
+        <v>4.335659904880941</v>
       </c>
       <c r="G21">
-        <v>0.002623771578809997</v>
+        <v>0.0008372111102341887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.037432778673505</v>
+        <v>2.747571517006392</v>
       </c>
       <c r="J21">
-        <v>0.1963891693338411</v>
+        <v>0.1123869125759924</v>
       </c>
       <c r="K21">
-        <v>1.149887808821831</v>
+        <v>1.708752825524556</v>
       </c>
       <c r="L21">
-        <v>0.3978629473368329</v>
+        <v>0.3207371553557437</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.310557212766611</v>
+        <v>1.693535088282573</v>
       </c>
       <c r="C22">
-        <v>0.09032600445041794</v>
+        <v>0.2680573568282796</v>
       </c>
       <c r="D22">
-        <v>0.007537193587794144</v>
+        <v>0.002515777710125899</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.752334333000363</v>
+        <v>4.536063868396042</v>
       </c>
       <c r="G22">
-        <v>0.002620628037229848</v>
+        <v>0.0008313348661448122</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.064678740514807</v>
+        <v>2.862094853799519</v>
       </c>
       <c r="J22">
-        <v>0.1968036280729351</v>
+        <v>0.1153623611475822</v>
       </c>
       <c r="K22">
-        <v>1.176348817174329</v>
+        <v>1.841693466939802</v>
       </c>
       <c r="L22">
-        <v>0.4009537000901986</v>
+        <v>0.3409036244093642</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.298920444950681</v>
+        <v>1.629518452719196</v>
       </c>
       <c r="C23">
-        <v>0.08764283089016089</v>
+        <v>0.2571178476043485</v>
       </c>
       <c r="D23">
-        <v>0.007615034860197101</v>
+        <v>0.002507568292673845</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.727891378521264</v>
+        <v>4.428516189375671</v>
       </c>
       <c r="G23">
-        <v>0.002622294691369617</v>
+        <v>0.0008344653388493155</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.050080834382328</v>
+        <v>2.800627029027524</v>
       </c>
       <c r="J23">
-        <v>0.1965789268483533</v>
+        <v>0.1137628302244309</v>
       </c>
       <c r="K23">
-        <v>1.162166857627653</v>
+        <v>1.770440330873811</v>
       </c>
       <c r="L23">
-        <v>0.3992884471638973</v>
+        <v>0.330086955968099</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.256300512476002</v>
+        <v>1.392641942311997</v>
       </c>
       <c r="C24">
-        <v>0.07754630815277608</v>
+        <v>0.2166514801922119</v>
       </c>
       <c r="D24">
-        <v>0.007929054524646428</v>
+        <v>0.002458281255788508</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.637559637487129</v>
+        <v>4.033433212867152</v>
       </c>
       <c r="G24">
-        <v>0.002628851626721793</v>
+        <v>0.0008464589784720317</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.996026843074105</v>
+        <v>2.57499648868064</v>
       </c>
       <c r="J24">
-        <v>0.1958047745225571</v>
+        <v>0.1079462438669054</v>
       </c>
       <c r="K24">
-        <v>1.10975576788374</v>
+        <v>1.506770713537833</v>
       </c>
       <c r="L24">
-        <v>0.393325867593461</v>
+        <v>0.290233273532607</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.213436511276228</v>
+        <v>1.146999412666418</v>
       </c>
       <c r="C25">
-        <v>0.0667923467791951</v>
+        <v>0.1746473387481302</v>
       </c>
       <c r="D25">
-        <v>0.008309199585091243</v>
+        <v>0.002369888558461319</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.544896146713768</v>
+        <v>3.629377168329114</v>
       </c>
       <c r="G25">
-        <v>0.002636451078849207</v>
+        <v>0.0008597503391830354</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.94034348232168</v>
+        <v>2.344580890808672</v>
       </c>
       <c r="J25">
-        <v>0.1951342499620772</v>
+        <v>0.1021244182307228</v>
       </c>
       <c r="K25">
-        <v>1.055999967789177</v>
+        <v>1.233213735829196</v>
       </c>
       <c r="L25">
-        <v>0.3876315695066097</v>
+        <v>0.249261581827966</v>
       </c>
       <c r="M25">
         <v>0</v>
